--- a/assets/disciplinas/LOT2023.xlsx
+++ b/assets/disciplinas/LOT2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Demonstrar as principais etapas no desenvolvimento dos processos bioquímicos industriais abordando aspectos bioquímicos importantes na produção de alimentos, e importantes metabólitos. Apresentar aos alunos uma visão das aplicações potenciais e estratégicas da biotecnologia moderna, incluindo as biorefinarias de lignocelulósicos.Aprimorar o raciocínio e despertar o espírito crítico e a criatividade dos alunos na resolução de problemas industriais envolvendo processos bioquímicos.</t>
+    <t>1814052 - Silvio Silverio da Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1814052 - Silvio Silverio da Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução aos processos bioquímicos industriais que incluem o processamento de alimentos, e importantes metabólitos, a manufatura de soros e vacinas, e os conceitos modernos de bioenergia e biorrefinarias.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Introdução ao Processamento de alimentos: tipos de indústria de alimentos, matériasprimas,fases doprocessamento de produtos alimentícios, conservação/alterações de alimentos, microbiologia dealimentos, alterações bioquímicas em alimentos (oxidação de lipídeos, antioxidantes, escurecimentoenzimático e não enzimático), aflatoxinas, conservantes químicos, toxicantes naturais.2. Discussão e apresentação sobre aspectos bioquímicos importantes na produção de metabólitos por microrganismos e  estudo de casos .3. Manufatura de soros e vacinas Métodosindustriais para a produção de soros e vacinas 4.Biotecnologia de lignocelulósicos: Separação e fermentação das frações e principais processosbioquímicos envolvendo materiais lignocelulósicos.5. Bioenergia, biocombustíveis e biorrefinarias.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,31 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de prova escrita (P1) e trabalhos (P2).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) será calculada da seguintes maneira: NF=(P1 + P2)/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR)será calculada como MR=(NF+PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. BORZANI, W., SCHMIDELL, W., LIMA, U.A., AQUARONE, E. Biotecnologia Industrial - Fundamentos (Vol 1). São Paulo: Edgard Blucher Ltda, 2001.
-2. DEMAIN, A.L., SOLOMON, N.A. (Eds). Manual of industrial microbiology and biotechnology, Washington: American Society for Microbiology, 1986.
-3. WANG, D.C. et al. Fermentation and Enzyme Technology, New York: Wiley-Interscience, 1979.
-4. GAVA, A.J. Princípios de Tecnologia de Alimentos, São Paulo: Nobel, 1983.
-5. LIMA , U. A et al. Biotecnología Industrial, Biotecnologia na produção de alimentos - Série Biotecnología, vol4. Ed. Edgard Blucher,Ltda , 2001.
-6. EVANGELISTA, J. Tecnologia de Alimentos, Rio de Janeiro: Livraria Atheneu, 1987.
-7. CAMARGO R. et al., Tecnologia de produtos Agropecuários- Alimentos, São Paulo: Livraria Nobel, 1984.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -503,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,34 +613,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -669,85 +657,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2023.xlsx
+++ b/assets/disciplinas/LOT2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Demonstrar as principais etapas no desenvolvimento dos processos bioquímicos industriais abordando aspectos bioquímicos importantes na produção de alimentos, e importantes metabólitos. Apresentar aos alunos uma visão das aplicações potenciais e estratégicas da biotecnologia moderna, incluindo as biorefinarias de lignocelulósicos.Aprimorar o raciocínio e despertar o espírito crítico e a criatividade dos alunos na resolução de problemas industriais envolvendo processos bioquímicos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1814052 - Silvio Silverio da Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução aos processos bioquímicos industriais que incluem o processamento de alimentos, e importantes metabólitos, a manufatura de soros e vacinas, e os conceitos modernos de bioenergia e biorrefinarias.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução ao Processamento de alimentos: tipos de indústria de alimentos, matériasprimas,fases doprocessamento de produtos alimentícios, conservação/alterações de alimentos, microbiologia dealimentos, alterações bioquímicas em alimentos (oxidação de lipídeos, antioxidantes, escurecimentoenzimático e não enzimático), aflatoxinas, conservantes químicos, toxicantes naturais.2. Discussão e apresentação sobre aspectos bioquímicos importantes na produção de metabólitos por microrganismos e  estudo de casos .3. Manufatura de soros e vacinas Métodosindustriais para a produção de soros e vacinas 4.Biotecnologia de lignocelulósicos: Separação e fermentação das frações e principais processosbioquímicos envolvendo materiais lignocelulósicos.5. Bioenergia, biocombustíveis e biorrefinarias.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,31 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por meio de prova escrita (P1) e trabalhos (P2).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de prova escrita (P1) e trabalhos (P2).</t>
+    <t>A nota final (NF) será calculada da seguintes maneira: NF=(P1 + P2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final (NF) será calculada da seguintes maneira: NF=(P1 + P2)/2</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR)será calculada como MR=(NF+PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR)será calculada como MR=(NF+PR)/2</t>
+    <t>1. BORZANI, W., SCHMIDELL, W., LIMA, U.A., AQUARONE, E. Biotecnologia Industrial - Fundamentos (Vol 1). São Paulo: Edgard Blucher Ltda, 2001.
+2. DEMAIN, A.L., SOLOMON, N.A. (Eds). Manual of industrial microbiology and biotechnology, Washington: American Society for Microbiology, 1986.
+3. WANG, D.C. et al. Fermentation and Enzyme Technology, New York: Wiley-Interscience, 1979.
+4. GAVA, A.J. Princípios de Tecnologia de Alimentos, São Paulo: Nobel, 1983.
+5. LIMA , U. A et al. Biotecnología Industrial, Biotecnologia na produção de alimentos - Série Biotecnología, vol4. Ed. Edgard Blucher,Ltda , 2001.
+6. EVANGELISTA, J. Tecnologia de Alimentos, Rio de Janeiro: Livraria Atheneu, 1987.
+7. CAMARGO R. et al., Tecnologia de produtos Agropecuários- Alimentos, São Paulo: Livraria Nobel, 1984.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -488,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -613,37 +628,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -657,74 +669,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
